--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f210969fdb2de972/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A778071-2348-436E-ACB0-426F68EF24F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{9A778071-2348-436E-ACB0-426F68EF24F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E48D97DD-52A9-49BB-968A-AFF0A3231252}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2853DDE4-D84E-4A30-8195-E06ABADBA2A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>score1</t>
+  </si>
+  <si>
+    <t>devi</t>
+  </si>
+  <si>
+    <t>nithya</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B0362B-8CB0-41D2-8FDE-3FB3E0D44ECE}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,6 +441,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f210969fdb2de972/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{9A778071-2348-436E-ACB0-426F68EF24F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E48D97DD-52A9-49BB-968A-AFF0A3231252}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{9A778071-2348-436E-ACB0-426F68EF24F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE28C1BE-B749-48BA-AB51-559D89825A1D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2853DDE4-D84E-4A30-8195-E06ABADBA2A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2853DDE4-D84E-4A30-8195-E06ABADBA2A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -103,6 +104,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B0362B-8CB0-41D2-8FDE-3FB3E0D44ECE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -454,4 +459,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD938281-5B6B-44C6-AA5D-B407BA4632EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>